--- a/ConfigurationFolder/admin_testcase/Testcase.xlsx
+++ b/ConfigurationFolder/admin_testcase/Testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Open browser and click on jishi</t>
   </si>
@@ -66,13 +66,22 @@
     <t>Executed</t>
   </si>
   <si>
+    <t>TC_EC_0004</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>TC_EC_0005</t>
+  </si>
+  <si>
+    <t>Mobile Registration</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>TC_EC_0004</t>
-  </si>
-  <si>
-    <t>Registration</t>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -451,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -465,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -479,25 +488,39 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>

--- a/ConfigurationFolder/admin_testcase/Testcase.xlsx
+++ b/ConfigurationFolder/admin_testcase/Testcase.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
